--- a/stats_cheat_sheet/stats_cheatsheet.xlsx
+++ b/stats_cheat_sheet/stats_cheatsheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t xml:space="preserve">Statistics For Data Science</t>
   </si>
@@ -67,6 +67,12 @@
     <t xml:space="preserve">2.Probability Introduction</t>
   </si>
   <si>
+    <t xml:space="preserve">Used  to measure the no.of chances for particular event occuring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex.Toss a coin ,one time  has probality 0.5 because it may head or tail ,so 50% chance</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.Addition Rule in Probability</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t xml:space="preserve">6.Population And Sample</t>
   </si>
   <si>
+    <t xml:space="preserve">population is super set data ,sample is sub set of population</t>
+  </si>
+  <si>
     <t xml:space="preserve">7.Measure Of Central Tendency(Mean, Median,</t>
   </si>
   <si>
@@ -97,19 +106,43 @@
     <t xml:space="preserve">10. What is Sampling Method And Its Types</t>
   </si>
   <si>
-    <t xml:space="preserve">11. What is Variables And Its Types?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12. Variable Measurement Scales</t>
+    <t xml:space="preserve">Sampling is process to take samples,                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Types: 1.Normal Random sampling      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Startified sampling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.Sysytemtic sampling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.convinece sampling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. What is Variables And Its Types? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">variables are attribute used to store value ,it can be called as Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. Date Measurement Scales</t>
   </si>
   <si>
     <t xml:space="preserve">13. Frequency Distribution And Cumulative</t>
   </si>
   <si>
+    <t xml:space="preserve">frequcey is repetiations of particular data, cumlative is no.of frequency below and current value</t>
+  </si>
+  <si>
     <t xml:space="preserve">Frequency</t>
   </si>
   <si>
     <t xml:space="preserve">14. Histograms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.How to find this all in program</t>
   </si>
   <si>
     <t xml:space="preserve">1.Percentiles And Quantiles</t>
@@ -206,16 +239,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -233,22 +266,53 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF17176B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF17176B"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -257,6 +321,7 @@
       <color rgb="FF3465A4"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -264,12 +329,7 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -278,6 +338,7 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -285,31 +346,15 @@
       <color rgb="FF996600"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -321,14 +366,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFD1"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FF000042"/>
+        <bgColor rgb="FF000080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000042"/>
-        <bgColor rgb="FF000080"/>
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFF0C78C"/>
       </patternFill>
     </fill>
     <fill>
@@ -339,20 +384,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFD1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFF0C78C"/>
+        <fgColor rgb="FFFFFFD1"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -365,18 +410,83 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair">
         <color rgb="FF000080"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair">
+        <color rgb="FF000080"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF000080"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair">
+        <color rgb="FF000080"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000080"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF000080"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000080"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right style="hair">
         <color rgb="FF000080"/>
       </right>
       <top style="hair">
         <color rgb="FF000080"/>
       </top>
-      <bottom style="hair">
-        <color rgb="FF000080"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -384,86 +494,6 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair">
-        <color rgb="FF000080"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color rgb="FF000080"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="hair">
-        <color rgb="FF000080"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair">
-        <color rgb="FF000080"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000080"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair">
-        <color rgb="FF000080"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair">
-        <color rgb="FF000080"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color rgb="FF000080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair">
-        <color rgb="FF000080"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color rgb="FF000080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair">
-        <color rgb="FF000080"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color rgb="FF000080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -482,6 +512,21 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF000080"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000080"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000080"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
       <top style="thin"/>
@@ -496,7 +541,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -520,7 +565,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -529,9 +574,11 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="3" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -551,46 +598,56 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="8" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="11" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="10" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="11" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="11" xfId="33" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="11" xfId="33" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="11" xfId="33" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="10" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="10" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="10" xfId="36" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -598,11 +655,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="13" xfId="34" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="12" xfId="34" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="13" xfId="35" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="12" xfId="35" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -610,43 +667,59 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="35" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="35" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="33" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="38" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="39" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="32" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="40" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="33" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="27">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Result2" xfId="20"/>
-    <cellStyle name="Background" xfId="21"/>
+    <cellStyle name="Background" xfId="20"/>
+    <cellStyle name="Bad 4" xfId="21"/>
     <cellStyle name="Card" xfId="22"/>
-    <cellStyle name="Input" xfId="23"/>
-    <cellStyle name="Card TL" xfId="24"/>
-    <cellStyle name="Card T" xfId="25"/>
-    <cellStyle name="Card TR" xfId="26"/>
-    <cellStyle name="Card L" xfId="27"/>
-    <cellStyle name="Card R" xfId="28"/>
-    <cellStyle name="Card B" xfId="29"/>
-    <cellStyle name="Card BL" xfId="30"/>
-    <cellStyle name="Card BR" xfId="31"/>
-    <cellStyle name="Column Header" xfId="32"/>
-    <cellStyle name="Note" xfId="33"/>
-    <cellStyle name="Neutral" xfId="34"/>
-    <cellStyle name="Good" xfId="35"/>
-    <cellStyle name="Bad" xfId="36"/>
+    <cellStyle name="Card B" xfId="23"/>
+    <cellStyle name="Card BL" xfId="24"/>
+    <cellStyle name="Card BR" xfId="25"/>
+    <cellStyle name="Card L" xfId="26"/>
+    <cellStyle name="Card R" xfId="27"/>
+    <cellStyle name="Card T" xfId="28"/>
+    <cellStyle name="Card TL" xfId="29"/>
+    <cellStyle name="Card TR" xfId="30"/>
+    <cellStyle name="Column Header" xfId="31"/>
+    <cellStyle name="Good 1" xfId="32"/>
+    <cellStyle name="Good 3" xfId="33"/>
+    <cellStyle name="Input" xfId="34"/>
+    <cellStyle name="Neutral 2" xfId="35"/>
+    <cellStyle name="Note 1" xfId="36"/>
+    <cellStyle name="Result2" xfId="37"/>
+    <cellStyle name="Good" xfId="38"/>
+    <cellStyle name="Neutral" xfId="39"/>
+    <cellStyle name="Bad" xfId="40"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -718,16 +791,18 @@
   </sheetPr>
   <dimension ref="A2:G63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="181" zoomScaleNormal="181" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="82.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.19"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -796,245 +871,280 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="B14" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="C14" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>16</v>
+      <c r="A16" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>24</v>
+      <c r="A24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>25</v>
+      <c r="A25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>26</v>
+      <c r="A26" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="B26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>27</v>
+      <c r="A27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>28</v>
+      <c r="A28" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
